--- a/Results/Categorization/lda2vec-partial-ner-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1808">
   <si>
     <t>id</t>
   </si>
@@ -4027,340 +4027,343 @@
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|SERVICE|PRICES|PRICES</t>
@@ -5841,10 +5844,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5870,7 +5873,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5893,10 +5896,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H4" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5919,10 +5922,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H5" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5945,10 +5948,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H6" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5971,10 +5974,10 @@
         <v>1277</v>
       </c>
       <c r="G7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H7" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5994,13 +5997,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G8" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H8" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6020,13 +6023,13 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H9" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6046,13 +6049,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H10" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6072,13 +6075,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G11" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H11" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6101,10 +6104,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H12" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6130,7 +6133,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6153,10 +6156,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H14" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6179,10 +6182,10 @@
         <v>1338</v>
       </c>
       <c r="G15" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H15" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6202,13 +6205,13 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G16" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H16" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6228,13 +6231,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G17" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H17" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6257,10 +6260,10 @@
         <v>1338</v>
       </c>
       <c r="G18" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H18" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6280,13 +6283,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G19" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H19" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6312,7 +6315,7 @@
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6332,13 +6335,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G21" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H21" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6364,7 +6367,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6390,7 +6393,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6416,7 +6419,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6436,13 +6439,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G25" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H25" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6465,10 +6468,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H26" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6494,7 +6497,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6514,13 +6517,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G28" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H28" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6543,10 +6546,10 @@
         <v>1338</v>
       </c>
       <c r="G29" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H29" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6569,10 +6572,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H30" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6592,13 +6595,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H31" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6618,13 +6621,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G32" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H32" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6644,13 +6647,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G33" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H33" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6670,13 +6673,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G34" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H34" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6699,10 +6702,10 @@
         <v>1338</v>
       </c>
       <c r="G35" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H35" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6722,13 +6725,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G36" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H36" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6751,10 +6754,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H37" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6774,13 +6777,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G38" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H38" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6803,10 +6806,10 @@
         <v>1284</v>
       </c>
       <c r="G39" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H39" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6829,10 +6832,10 @@
         <v>1338</v>
       </c>
       <c r="G40" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H40" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6852,13 +6855,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G41" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H41" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6878,13 +6881,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G42" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H42" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6904,13 +6907,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G43" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H43" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6930,13 +6933,13 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G44" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H44" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6959,10 +6962,10 @@
         <v>1357</v>
       </c>
       <c r="G45" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H45" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6988,7 +6991,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7014,7 +7017,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7037,10 +7040,10 @@
         <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H48" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7066,7 +7069,7 @@
         <v>993</v>
       </c>
       <c r="H49" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7086,13 +7089,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G50" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H50" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7112,13 +7115,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G51" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H51" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7141,10 +7144,10 @@
         <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H52" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7167,10 +7170,10 @@
         <v>1358</v>
       </c>
       <c r="G53" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H53" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7190,13 +7193,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G54" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H54" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7219,10 +7222,10 @@
         <v>1338</v>
       </c>
       <c r="G55" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H55" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7245,10 +7248,10 @@
         <v>1338</v>
       </c>
       <c r="G56" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H56" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7268,13 +7271,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H57" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7294,13 +7297,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H58" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7320,13 +7323,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G59" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H59" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7346,13 +7349,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G60" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H60" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7372,13 +7375,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G61" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H61" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7401,10 +7404,10 @@
         <v>1284</v>
       </c>
       <c r="G62" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H62" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7430,7 +7433,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7450,13 +7453,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G64" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H64" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7476,13 +7479,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G65" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H65" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7502,13 +7505,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H66" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7528,13 +7531,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G67" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H67" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7554,13 +7557,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G68" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H68" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7583,10 +7586,10 @@
         <v>1338</v>
       </c>
       <c r="G69" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H69" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7612,7 +7615,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7632,13 +7635,13 @@
         <v>1294</v>
       </c>
       <c r="F71" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G71" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H71" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7661,10 +7664,10 @@
         <v>1277</v>
       </c>
       <c r="G72" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H72" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7690,7 +7693,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7710,13 +7713,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G74" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H74" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7739,10 +7742,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H75" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7762,13 +7765,13 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G76" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H76" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7794,7 +7797,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7820,7 +7823,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7843,10 +7846,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H79" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7866,13 +7869,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G80" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H80" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7895,10 +7898,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H81" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7921,10 +7924,10 @@
         <v>1370</v>
       </c>
       <c r="G82" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H82" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7944,13 +7947,13 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G83" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H83" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7973,10 +7976,10 @@
         <v>1371</v>
       </c>
       <c r="G84" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H84" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8002,7 +8005,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8028,7 +8031,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8051,10 +8054,10 @@
         <v>1338</v>
       </c>
       <c r="G87" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H87" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8077,10 +8080,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H88" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8103,10 +8106,10 @@
         <v>1372</v>
       </c>
       <c r="G89" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H89" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8126,13 +8129,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="G90" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H90" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8152,13 +8155,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H91" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8184,7 +8187,7 @@
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8204,13 +8207,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G93" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H93" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8230,13 +8233,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G94" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H94" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8259,10 +8262,10 @@
         <v>1370</v>
       </c>
       <c r="G95" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H95" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8282,13 +8285,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G96" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H96" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8308,13 +8311,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G97" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H97" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8337,10 +8340,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H98" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8363,10 +8366,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H99" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8386,13 +8389,13 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G100" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H100" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8412,13 +8415,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G101" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H101" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8438,13 +8441,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G102" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H102" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8467,10 +8470,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H103" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8490,13 +8493,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G104" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H104" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8516,13 +8519,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G105" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H105" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8548,7 +8551,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8571,10 +8574,10 @@
         <v>1338</v>
       </c>
       <c r="G107" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H107" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8600,7 +8603,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8620,13 +8623,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G109" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H109" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8646,13 +8649,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="G110" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H110" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8672,13 +8675,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G111" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H111" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8698,13 +8701,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H112" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8724,13 +8727,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H113" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8753,10 +8756,10 @@
         <v>1338</v>
       </c>
       <c r="G114" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H114" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8779,10 +8782,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H115" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8808,7 +8811,7 @@
         <v>1069</v>
       </c>
       <c r="H116" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8834,7 +8837,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8854,13 +8857,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G118" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H118" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8880,13 +8883,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G119" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H119" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8906,13 +8909,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G120" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H120" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8932,13 +8935,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G121" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H121" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8958,13 +8961,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G122" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H122" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8990,7 +8993,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9016,7 +9019,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9042,7 +9045,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9068,7 +9071,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9091,10 +9094,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H127" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9117,10 +9120,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H128" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9146,7 +9149,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9169,10 +9172,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H130" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9192,13 +9195,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G131" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H131" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9218,13 +9221,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G132" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H132" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9244,13 +9247,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G133" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H133" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9270,13 +9273,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1379</v>
+        <v>1339</v>
       </c>
       <c r="G134" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H134" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9299,10 +9302,10 @@
         <v>1380</v>
       </c>
       <c r="G135" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H135" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9325,10 +9328,10 @@
         <v>1381</v>
       </c>
       <c r="G136" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H136" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9348,13 +9351,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G137" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H137" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9374,13 +9377,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G138" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H138" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9400,13 +9403,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G139" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H139" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9429,10 +9432,10 @@
         <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H140" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9452,13 +9455,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9478,13 +9481,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G142" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H142" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9504,13 +9507,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G143" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H143" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9530,13 +9533,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G144" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H144" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9556,13 +9559,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G145" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H145" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9588,7 +9591,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9608,13 +9611,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1352</v>
+        <v>1383</v>
       </c>
       <c r="G147" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H147" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9634,13 +9637,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G148" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H148" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9663,10 +9666,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H149" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9692,7 +9695,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9712,13 +9715,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G151" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H151" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9744,7 +9747,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9767,10 +9770,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H153" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9790,13 +9793,13 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G154" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H154" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9816,13 +9819,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G155" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H155" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9848,7 +9851,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9871,10 +9874,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H157" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9894,13 +9897,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G158" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H158" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9923,10 +9926,10 @@
         <v>1370</v>
       </c>
       <c r="G159" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H159" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9949,10 +9952,10 @@
         <v>1284</v>
       </c>
       <c r="G160" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H160" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9975,10 +9978,10 @@
         <v>1338</v>
       </c>
       <c r="G161" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H161" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10001,10 +10004,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H162" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10027,10 +10030,10 @@
         <v>1277</v>
       </c>
       <c r="G163" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H163" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10050,13 +10053,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1369</v>
+        <v>1382</v>
       </c>
       <c r="G164" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H164" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10076,13 +10079,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G165" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H165" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10108,7 +10111,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10131,10 +10134,10 @@
         <v>1372</v>
       </c>
       <c r="G167" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H167" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10160,7 +10163,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10180,13 +10183,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G169" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H169" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10206,13 +10209,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G170" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H170" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10232,13 +10235,13 @@
         <v>1277</v>
       </c>
       <c r="F171" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H171" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10258,13 +10261,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G172" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H172" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10284,13 +10287,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="G173" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H173" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10310,13 +10313,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="G174" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H174" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10336,13 +10339,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G175" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H175" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10362,13 +10365,13 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G176" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H176" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10391,10 +10394,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H177" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10414,13 +10417,13 @@
         <v>1295</v>
       </c>
       <c r="F178" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G178" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H178" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10443,10 +10446,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H179" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10466,13 +10469,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G180" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H180" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10495,10 +10498,10 @@
         <v>1284</v>
       </c>
       <c r="G181" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H181" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10518,13 +10521,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G182" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H182" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10544,13 +10547,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G183" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H183" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10570,13 +10573,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G184" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H184" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10596,13 +10599,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G185" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H185" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10622,13 +10625,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G186" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H186" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10654,7 +10657,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10677,10 +10680,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H188" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10703,10 +10706,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H189" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10726,13 +10729,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G190" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H190" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10752,13 +10755,13 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G191" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H191" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10781,10 +10784,10 @@
         <v>1338</v>
       </c>
       <c r="G192" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H192" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10810,7 +10813,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10830,13 +10833,13 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G194" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H194" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10862,7 +10865,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10885,10 +10888,10 @@
         <v>1338</v>
       </c>
       <c r="G196" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H196" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10908,13 +10911,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G197" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H197" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10934,13 +10937,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G198" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H198" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10963,10 +10966,10 @@
         <v>1277</v>
       </c>
       <c r="G199" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H199" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10992,7 +10995,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11012,13 +11015,13 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G201" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H201" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11044,7 +11047,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11067,10 +11070,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H203" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11093,10 +11096,10 @@
         <v>1338</v>
       </c>
       <c r="G204" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H204" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11119,10 +11122,10 @@
         <v>1381</v>
       </c>
       <c r="G205" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H205" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11142,13 +11145,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G206" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H206" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11168,13 +11171,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G207" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H207" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11200,7 +11203,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11220,13 +11223,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G209" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H209" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11246,13 +11249,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G210" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H210" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11272,13 +11275,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G211" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H211" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11304,7 +11307,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11327,10 +11330,10 @@
         <v>1338</v>
       </c>
       <c r="G213" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H213" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11356,7 +11359,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11379,10 +11382,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H215" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11402,13 +11405,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G216" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H216" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11428,13 +11431,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1365</v>
+        <v>1339</v>
       </c>
       <c r="G217" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H217" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11457,10 +11460,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H218" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11480,13 +11483,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1352</v>
+        <v>1383</v>
       </c>
       <c r="G219" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H219" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11506,13 +11509,13 @@
         <v>1277</v>
       </c>
       <c r="F220" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G220" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H220" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11532,13 +11535,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G221" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H221" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11561,10 +11564,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H222" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11584,13 +11587,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G223" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H223" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11616,7 +11619,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11636,13 +11639,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G225" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H225" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11662,13 +11665,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G226" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H226" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11688,13 +11691,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G227" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H227" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11714,13 +11717,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G228" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H228" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11746,7 +11749,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11772,7 +11775,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11798,7 +11801,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11818,13 +11821,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G232" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H232" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11844,13 +11847,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G233" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H233" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11873,10 +11876,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H234" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11902,7 +11905,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11925,10 +11928,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H236" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11951,10 +11954,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H237" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11974,13 +11977,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G238" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H238" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12000,13 +12003,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G239" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H239" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12026,13 +12029,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G240" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H240" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12052,13 +12055,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="G241" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H241" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12078,13 +12081,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G242" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H242" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12110,7 +12113,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12136,7 +12139,7 @@
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12156,13 +12159,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G245" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H245" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12185,10 +12188,10 @@
         <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H246" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12208,13 +12211,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1407</v>
+        <v>1384</v>
       </c>
       <c r="G247" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H247" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12237,10 +12240,10 @@
         <v>1408</v>
       </c>
       <c r="G248" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H248" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12260,13 +12263,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1345</v>
+        <v>1366</v>
       </c>
       <c r="G249" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H249" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12289,10 +12292,10 @@
         <v>1409</v>
       </c>
       <c r="G250" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H250" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12318,7 +12321,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12344,7 +12347,7 @@
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12370,7 +12373,7 @@
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12393,10 +12396,10 @@
         <v>1410</v>
       </c>
       <c r="G254" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H254" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12419,10 +12422,10 @@
         <v>1338</v>
       </c>
       <c r="G255" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H255" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12442,13 +12445,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1411</v>
+        <v>1342</v>
       </c>
       <c r="G256" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H256" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12468,13 +12471,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G257" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H257" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12494,13 +12497,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G258" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H258" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12526,7 +12529,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12549,10 +12552,10 @@
         <v>1338</v>
       </c>
       <c r="G260" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H260" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12575,10 +12578,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H261" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12598,13 +12601,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G262" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H262" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12624,13 +12627,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G263" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H263" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12656,7 +12659,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12679,10 +12682,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H265" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12702,13 +12705,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G266" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H266" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12728,13 +12731,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12754,13 +12757,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="G268" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H268" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12780,13 +12783,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1377</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H269" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12806,13 +12809,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G270" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H270" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12835,10 +12838,10 @@
         <v>1414</v>
       </c>
       <c r="G271" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H271" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12861,10 +12864,10 @@
         <v>1415</v>
       </c>
       <c r="G272" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H272" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12887,10 +12890,10 @@
         <v>1416</v>
       </c>
       <c r="G273" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H273" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12910,13 +12913,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G274" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H274" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12942,7 +12945,7 @@
         <v>989</v>
       </c>
       <c r="H275" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12965,10 +12968,10 @@
         <v>1417</v>
       </c>
       <c r="G276" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H276" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12988,13 +12991,13 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G277" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H277" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13014,13 +13017,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G278" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H278" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13040,13 +13043,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G279" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H279" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13069,10 +13072,10 @@
         <v>1418</v>
       </c>
       <c r="G280" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H280" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13095,10 +13098,10 @@
         <v>1419</v>
       </c>
       <c r="G281" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H281" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13121,10 +13124,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H282" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13144,13 +13147,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G283" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H283" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13170,13 +13173,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="G284" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H284" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13202,7 +13205,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13228,7 +13231,7 @@
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13251,10 +13254,10 @@
         <v>1420</v>
       </c>
       <c r="G287" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H287" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13280,7 +13283,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13306,7 +13309,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13329,10 +13332,10 @@
         <v>1421</v>
       </c>
       <c r="G290" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H290" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13352,13 +13355,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="G291" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H291" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13381,10 +13384,10 @@
         <v>1422</v>
       </c>
       <c r="G292" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H292" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13404,13 +13407,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G293" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H293" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13433,10 +13436,10 @@
         <v>1338</v>
       </c>
       <c r="G294" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H294" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13459,10 +13462,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H295" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13482,13 +13485,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G296" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H296" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13511,10 +13514,10 @@
         <v>1423</v>
       </c>
       <c r="G297" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H297" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13534,13 +13537,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G298" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H298" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13560,13 +13563,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G299" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H299" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13586,13 +13589,13 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G300" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H300" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13618,7 +13621,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13638,13 +13641,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G302" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H302" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13667,10 +13670,10 @@
         <v>1284</v>
       </c>
       <c r="G303" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H303" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13693,10 +13696,10 @@
         <v>1424</v>
       </c>
       <c r="G304" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H304" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13716,13 +13719,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G305" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H305" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13742,13 +13745,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G306" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H306" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13768,13 +13771,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="G307" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H307" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13794,13 +13797,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G308" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H308" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13826,7 +13829,7 @@
         <v>989</v>
       </c>
       <c r="H309" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13852,7 +13855,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13878,7 +13881,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13898,13 +13901,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G312" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H312" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13930,7 +13933,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13950,13 +13953,13 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G314" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H314" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13982,7 +13985,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14008,7 +14011,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14034,7 +14037,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14054,13 +14057,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G318" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H318" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14086,7 +14089,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14112,7 +14115,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14135,10 +14138,10 @@
         <v>1425</v>
       </c>
       <c r="G321" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H321" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14158,13 +14161,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G322" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H322" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14184,13 +14187,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="G323" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H323" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14213,10 +14216,10 @@
         <v>1338</v>
       </c>
       <c r="G324" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H324" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14242,7 +14245,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14262,13 +14265,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G326" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H326" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14288,13 +14291,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G327" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H327" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14314,13 +14317,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1424</v>
+        <v>1351</v>
       </c>
       <c r="G328" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H328" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14340,13 +14343,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G329" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H329" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14366,13 +14369,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G330" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H330" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14398,7 +14401,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14424,7 +14427,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14447,10 +14450,10 @@
         <v>1380</v>
       </c>
       <c r="G333" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H333" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14473,10 +14476,10 @@
         <v>1424</v>
       </c>
       <c r="G334" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H334" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14499,10 +14502,10 @@
         <v>1426</v>
       </c>
       <c r="G335" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H335" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14525,10 +14528,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H336" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14551,10 +14554,10 @@
         <v>1427</v>
       </c>
       <c r="G337" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H337" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14577,10 +14580,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H338" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14600,13 +14603,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G339" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H339" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14632,7 +14635,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14655,10 +14658,10 @@
         <v>1425</v>
       </c>
       <c r="G341" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H341" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14681,10 +14684,10 @@
         <v>1428</v>
       </c>
       <c r="G342" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H342" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14704,13 +14707,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="G343" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H343" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14733,10 +14736,10 @@
         <v>1426</v>
       </c>
       <c r="G344" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H344" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14756,13 +14759,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G345" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H345" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14785,10 +14788,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H346" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14811,10 +14814,10 @@
         <v>1371</v>
       </c>
       <c r="G347" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H347" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14834,13 +14837,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G348" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H348" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14863,10 +14866,10 @@
         <v>1429</v>
       </c>
       <c r="G349" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H349" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14889,10 +14892,10 @@
         <v>1430</v>
       </c>
       <c r="G350" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H350" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14912,13 +14915,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G351" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H351" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14941,10 +14944,10 @@
         <v>1431</v>
       </c>
       <c r="G352" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H352" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14964,13 +14967,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G353" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H353" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14996,7 +14999,7 @@
         <v>989</v>
       </c>
       <c r="H354" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15022,7 +15025,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15042,13 +15045,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
       <c r="G356" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H356" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15068,13 +15071,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G357" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H357" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15097,10 +15100,10 @@
         <v>1432</v>
       </c>
       <c r="G358" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H358" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15126,7 +15129,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15146,13 +15149,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="G360" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H360" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15175,10 +15178,10 @@
         <v>1433</v>
       </c>
       <c r="G361" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H361" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15201,10 +15204,10 @@
         <v>1284</v>
       </c>
       <c r="G362" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H362" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15230,7 +15233,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15250,13 +15253,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G364" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H364" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15279,10 +15282,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H365" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15305,10 +15308,10 @@
         <v>1434</v>
       </c>
       <c r="G366" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H366" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15328,13 +15331,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="G367" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H367" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15354,13 +15357,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G368" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H368" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15380,13 +15383,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G369" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H369" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15412,7 +15415,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15435,10 +15438,10 @@
         <v>1338</v>
       </c>
       <c r="G371" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H371" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15458,13 +15461,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G372" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H372" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15484,13 +15487,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="G373" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H373" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15510,13 +15513,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G374" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H374" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15539,10 +15542,10 @@
         <v>1338</v>
       </c>
       <c r="G375" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H375" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15565,10 +15568,10 @@
         <v>1357</v>
       </c>
       <c r="G376" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H376" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15588,13 +15591,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G377" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H377" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15614,7 +15617,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15640,7 +15643,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15660,13 +15663,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G380" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H380" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15686,13 +15689,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G381" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H381" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15715,10 +15718,10 @@
         <v>1372</v>
       </c>
       <c r="G382" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H382" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15738,13 +15741,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G383" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H383" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15764,13 +15767,13 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G384" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H384" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15793,10 +15796,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H385" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15816,13 +15819,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G386" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H386" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15842,13 +15845,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G387" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H387" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15868,13 +15871,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G388" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H388" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15894,13 +15897,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G389" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H389" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15920,13 +15923,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G390" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H390" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15946,13 +15949,13 @@
         <v>1293</v>
       </c>
       <c r="F391" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G391" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H391" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15972,13 +15975,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G392" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H392" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15998,13 +16001,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G393" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H393" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16024,13 +16027,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G394" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H394" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16050,13 +16053,13 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G395" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H395" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16076,13 +16079,13 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G396" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H396" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16102,13 +16105,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1375</v>
+        <v>1444</v>
       </c>
       <c r="G397" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H397" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16131,10 +16134,10 @@
         <v>1424</v>
       </c>
       <c r="G398" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H398" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16154,13 +16157,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G399" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H399" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16180,13 +16183,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1428</v>
+        <v>1387</v>
       </c>
       <c r="G400" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H400" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16209,10 +16212,10 @@
         <v>1445</v>
       </c>
       <c r="G401" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H401" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16232,13 +16235,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G402" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H402" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16258,13 +16261,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G403" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H403" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16284,13 +16287,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1352</v>
+        <v>1383</v>
       </c>
       <c r="G404" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H404" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16316,7 +16319,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16336,13 +16339,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G406" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H406" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16362,13 +16365,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1374</v>
+        <v>1387</v>
       </c>
       <c r="G407" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H407" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16388,13 +16391,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G408" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H408" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16417,10 +16420,10 @@
         <v>1381</v>
       </c>
       <c r="G409" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H409" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16446,7 +16449,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16469,10 +16472,10 @@
         <v>1446</v>
       </c>
       <c r="G411" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H411" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16495,10 +16498,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H412" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16518,13 +16521,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16550,7 +16553,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16573,10 +16576,10 @@
         <v>1447</v>
       </c>
       <c r="G415" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H415" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16596,13 +16599,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H416" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16622,13 +16625,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G417" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H417" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16648,13 +16651,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G418" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H418" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16674,13 +16677,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G419" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H419" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16703,10 +16706,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H420" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16729,10 +16732,10 @@
         <v>1284</v>
       </c>
       <c r="G421" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H421" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16755,10 +16758,10 @@
         <v>1448</v>
       </c>
       <c r="G422" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H422" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16778,13 +16781,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G423" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H423" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16804,13 +16807,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1347</v>
+        <v>1449</v>
       </c>
       <c r="G424" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H424" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16830,13 +16833,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1414</v>
+        <v>1387</v>
       </c>
       <c r="G425" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H425" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16856,13 +16859,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G426" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H426" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16888,7 +16891,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16914,7 +16917,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16934,13 +16937,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G429" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H429" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16960,13 +16963,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G430" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H430" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16992,7 +16995,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17015,10 +17018,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H432" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17038,13 +17041,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1372</v>
+        <v>1382</v>
       </c>
       <c r="G433" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H433" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17064,13 +17067,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G434" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H434" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17090,13 +17093,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G435" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H435" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17122,7 +17125,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17142,13 +17145,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G437" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H437" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17171,10 +17174,10 @@
         <v>1338</v>
       </c>
       <c r="G438" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H438" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17194,13 +17197,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G439" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H439" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17220,13 +17223,13 @@
         <v>1329</v>
       </c>
       <c r="F440" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G440" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H440" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17246,13 +17249,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1388</v>
+        <v>1366</v>
       </c>
       <c r="G441" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H441" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17278,7 +17281,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17298,13 +17301,13 @@
         <v>1278</v>
       </c>
       <c r="F443" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G443" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H443" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17324,13 +17327,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G444" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H444" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17350,13 +17353,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G445" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H445" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17376,13 +17379,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G446" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H446" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17402,13 +17405,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1347</v>
+        <v>1449</v>
       </c>
       <c r="G447" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H447" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17428,13 +17431,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G448" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H448" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17454,13 +17457,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="G449" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="H449" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17480,13 +17483,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G450" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H450" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17509,10 +17512,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H451" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17532,13 +17535,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G452" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="H452" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17558,13 +17561,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1351</v>
+        <v>1451</v>
       </c>
       <c r="G453" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H453" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17584,13 +17587,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G454" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H454" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17610,13 +17613,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G455" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H455" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17636,13 +17639,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G456" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H456" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17662,13 +17665,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="G457" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H457" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17688,13 +17691,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="G458" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H458" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17714,13 +17717,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G459" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H459" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17746,7 +17749,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17766,13 +17769,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G461" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H461" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17792,13 +17795,13 @@
         <v>1329</v>
       </c>
       <c r="F462" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G462" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H462" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17821,10 +17824,10 @@
         <v>1424</v>
       </c>
       <c r="G463" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H463" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17850,7 +17853,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17873,10 +17876,10 @@
         <v>1338</v>
       </c>
       <c r="G465" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H465" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
   </sheetData>
